--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577D005B-FE4A-43A7-8196-7F1A1BD56A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380D54F-133D-40CA-86BE-DF3BFBDA696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>ano</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>31-11-2022</t>
+  </si>
+  <si>
+    <t>31-02-2023</t>
   </si>
 </sst>
 </file>
@@ -679,8 +682,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,7 +2433,12 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B219" s="5">
+        <v>9.18</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C380D54F-133D-40CA-86BE-DF3BFBDA696C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A0A81-16AE-4F4D-BC07-CE2F124541A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,7 +683,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="A220" sqref="A220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2441,7 +2441,12 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
+      <c r="A220" s="3">
+        <v>45016</v>
+      </c>
+      <c r="B220" s="5">
+        <v>9.16</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A0A81-16AE-4F4D-BC07-CE2F124541A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3CDA8-6986-4281-8309-F7B61E184AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>ano</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>31-02-2023</t>
+  </si>
+  <si>
+    <t>31-04-2023</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A220" sqref="A220"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2449,7 +2452,12 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B221" s="5">
+        <v>8.4499999999999993</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D3CDA8-6986-4281-8309-F7B61E184AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F47F6-2B32-419D-ADFB-0C37CF881755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,7 +686,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2460,7 +2460,12 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
+      <c r="A222" s="3">
+        <v>45077</v>
+      </c>
+      <c r="B222" s="5">
+        <v>7.89</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1F47F6-2B32-419D-ADFB-0C37CF881755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1B3DB-CB2F-4771-9A40-68B21EA7E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ano</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>31-04-2023</t>
+  </si>
+  <si>
+    <t>31-06-2023</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2468,7 +2471,12 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
+      <c r="A223" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B223" s="5">
+        <v>7.07</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB1B3DB-CB2F-4771-9A40-68B21EA7E8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809F66B-DC71-4F07-B5E0-F7A9F7D0E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2479,7 +2479,12 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
+      <c r="A224" s="3">
+        <v>45138</v>
+      </c>
+      <c r="B224" s="5">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809F66B-DC71-4F07-B5E0-F7A9F7D0E448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E69E95-A133-43C7-A8F7-1E3CC9C4C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -689,7 +689,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2486,52 +2486,57 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>45169</v>
+      </c>
+      <c r="B225" s="5">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E69E95-A133-43C7-A8F7-1E3CC9C4C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD77F27-4B9B-4C23-8A24-CE0E89172D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>ano</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>31-06-2023</t>
+  </si>
+  <si>
+    <t>31-09-2023</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2498,12 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B226" s="5">
+        <v>7.45</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD77F27-4B9B-4C23-8A24-CE0E89172D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D66005-89E4-485D-A8F7-64BEF9500B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,8 +691,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2506,12 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
+      <c r="A227" s="3">
+        <v>45230</v>
+      </c>
+      <c r="B227" s="5">
+        <v>7.34</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D66005-89E4-485D-A8F7-64BEF9500B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67A95D-412B-4D78-A9E1-D683AF54CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>ano</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>31-09-2023</t>
+  </si>
+  <si>
+    <t>31-11-2023</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2517,12 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
+      <c r="A228" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B228" s="5">
+        <v>7.22</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA67A95D-412B-4D78-A9E1-D683AF54CDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1F4F-951F-4EAD-8BA1-A3545C3256C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A230" sqref="A230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2525,7 +2525,12 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
+      <c r="A229" s="3">
+        <v>45291</v>
+      </c>
+      <c r="B229" s="5">
+        <v>7.11</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8B1F4F-951F-4EAD-8BA1-A3545C3256C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327690E-B614-4B47-B7DE-CA02563FD76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,8 +694,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="A230" sqref="A230"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2533,7 +2533,12 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
+      <c r="A230" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B230" s="5">
+        <v>7.12</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327690E-B614-4B47-B7DE-CA02563FD76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF5554-E631-4E88-8787-93FC9F4A18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>ano</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>31-11-2023</t>
+  </si>
+  <si>
+    <t>31-02-2024</t>
   </si>
 </sst>
 </file>
@@ -694,8 +697,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2541,7 +2544,12 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
+      <c r="A231" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B231" s="5">
+        <v>6.99</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF5554-E631-4E88-8787-93FC9F4A18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C602343-9ED6-4B68-911F-C126EDD7BECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2552,7 +2552,12 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
+      <c r="A232" s="3">
+        <v>45382</v>
+      </c>
+      <c r="B232" s="5">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C602343-9ED6-4B68-911F-C126EDD7BECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EFC932-622B-4BE4-B643-831E7E474B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>ano</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>31-02-2024</t>
+  </si>
+  <si>
+    <t>31-04-2024</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2560,7 +2563,12 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B233" s="5">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EFC932-622B-4BE4-B643-831E7E474B49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBDB37-F3EB-4E5D-AE94-6AE2D45AAF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+      <selection activeCell="A234" sqref="A234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2571,7 +2571,12 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
+      <c r="A234" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B234" s="5">
+        <v>6.56</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EBDB37-F3EB-4E5D-AE94-6AE2D45AAF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F60B6-41AD-4DAF-A54E-F3052BFB6538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>ano</t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>31-04-2024</t>
+  </si>
+  <si>
+    <t>31-06-2024</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A234" sqref="A234"/>
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2582,12 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
+      <c r="A235" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B235" s="5">
+        <v>6.58</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F60B6-41AD-4DAF-A54E-F3052BFB6538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A4513-10CC-46DD-8661-F22647EAD5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2590,12 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
+      <c r="A236" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B236" s="5">
+        <v>6.67</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\datasets_produtos\itabuna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8A4513-10CC-46DD-8661-F22647EAD5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AFA25-F7FC-43C3-904A-0F4E36D31DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,7 +2598,12 @@
       </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
+      <c r="A237" s="3">
+        <v>45535</v>
+      </c>
+      <c r="B237" s="5">
+        <v>6.95</v>
+      </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8AFA25-F7FC-43C3-904A-0F4E36D31DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F625D-DCBB-4D63-86AA-E06D202C1A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>ano</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>31-06-2024</t>
+  </si>
+  <si>
+    <t>31-09-2024</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2606,7 +2609,12 @@
       </c>
     </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B238" s="5">
+        <v>6.97</v>
+      </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9F625D-DCBB-4D63-86AA-E06D202C1A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CFC85-F556-40AB-B419-E74B9B4F8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2617,7 +2617,12 @@
       </c>
     </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
+      <c r="A239" s="3">
+        <v>45596</v>
+      </c>
+      <c r="B239" s="5">
+        <v>7.53</v>
+      </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CFC85-F556-40AB-B419-E74B9B4F8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B88F5D-8BC4-4554-BB20-6F90F92E1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>ano</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>31-09-2024</t>
+  </si>
+  <si>
+    <t>31-11-2024</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2625,7 +2628,12 @@
       </c>
     </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
+      <c r="A240" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B240" s="5">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B88F5D-8BC4-4554-BB20-6F90F92E1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD475E6B-29E8-4850-991C-D45676453831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241"/>
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2635,37 +2635,42 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>45657</v>
+      </c>
+      <c r="B241" s="5">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
     </row>
   </sheetData>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD475E6B-29E8-4850-991C-D45676453831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0BF06-21AB-4C19-A742-A64AB075E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2644,12 @@
       </c>
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
+      <c r="A242" s="3">
+        <v>45688</v>
+      </c>
+      <c r="B242" s="5">
+        <v>9.64</v>
+      </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0BF06-21AB-4C19-A742-A64AB075E0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6E836-53A2-4F64-B91C-2F57AC166B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>ano</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>31-11-2024</t>
+  </si>
+  <si>
+    <t>31-02-2025</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
   </sheetPr>
   <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2652,7 +2655,12 @@
       </c>
     </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
+      <c r="A243" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B243" s="5">
+        <v>9.25</v>
+      </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6E836-53A2-4F64-B91C-2F57AC166B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1D324-FA91-48E5-86BC-071F22471803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
@@ -713,7 +713,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2663,7 +2663,12 @@
       </c>
     </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
+      <c r="A244" s="3">
+        <v>45747</v>
+      </c>
+      <c r="B244" s="5">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE1D324-FA91-48E5-86BC-071F22471803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7D827-AA95-40C9-BD2F-76F64628AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>ano</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>31-02-2025</t>
+  </si>
+  <si>
+    <t>31-04-2025</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2671,7 +2674,12 @@
       </c>
     </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B245" s="5">
+        <v>11</v>
+      </c>
     </row>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7D827-AA95-40C9-BD2F-76F64628AA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
+    <sheet name="oleo_itabuna" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -343,24 +339,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -373,29 +364,28 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,8 +403,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,107 +730,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,7 +744,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -591,7 +770,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -643,16 +822,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -668,7 +859,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -699,2008 +890,2009 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView topLeftCell="A219" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B246" activeCellId="0" sqref="B246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>2.1699999999999999</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>2.29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>2.1600000000000001</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
-      <c r="B8" s="1">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>2.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1.97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
-      <c r="B11" s="1">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3">
+        <v>1.8600000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
-      <c r="B13" s="1">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3">
+        <v>1.8799999999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
-      <c r="B14" s="1">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3">
+        <v>1.8899999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3">
+        <v>1.8300000000000001</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
-      <c r="B16" s="1">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>1.8999999999999999</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>1.8600000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
-      <c r="B18" s="1">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="3">
+        <v>1.8899999999999999</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>1.8700000000000001</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>2.04</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
-      <c r="B21" s="1">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>2.0600000000000001</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
-      <c r="B23" s="1">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>1.9099999999999999</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="3">
+        <v>2.1099999999999999</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
-      <c r="B25" s="1">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
-      <c r="B26" s="1">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="3">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>2.3700000000000001</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
-      <c r="B28" s="1">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>2.3799999999999999</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>2.25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="12.75">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
-      <c r="B32" s="1">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="3">
+        <v>2.3100000000000001</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>2.48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" ht="12.75">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>2.52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="1">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B36" s="3">
+        <v>2.6099999999999999</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
-      <c r="B37" s="1">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <v>2.8199999999999998</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
-      <c r="B38" s="1">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <v>3.1699999999999999</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B39" s="1">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <v>3.3700000000000001</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>3.48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="1">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>3.7599999999999998</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
-      <c r="B42" s="1">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <v>3.8300000000000001</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="3">
         <v>3.73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
-      <c r="B44" s="1">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <v>3.6499999999999999</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
-      <c r="B45" s="1">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <v>3.5299999999999998</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <v>3.2799999999999998</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
-      <c r="B47" s="1">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <v>3.2000000000000002</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="1">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <v>2.8700000000000001</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
-      <c r="B49" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <v>2.5600000000000001</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="3">
         <v>2.75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="12.75">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <v>2.6899999999999999</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
-      <c r="B52" s="1">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <v>2.6600000000000001</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="1">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <v>2.5899999999999999</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
-      <c r="B54" s="1">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <v>2.5800000000000001</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="1">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <v>2.6200000000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
-      <c r="B56" s="1">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <v>2.5800000000000001</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
-      <c r="B57" s="1">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <v>2.5699999999999998</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="3">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" ht="12.75">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
-      <c r="B59" s="1">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="1">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <v>2.6499999999999999</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
-      <c r="B61" s="1">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
-      <c r="B62" s="1">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <v>2.6099999999999999</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="1">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <v>2.5600000000000001</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="3">
         <v>2.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" ht="12.75">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B65" s="1">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
-      <c r="B66" s="1">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <v>2.4199999999999999</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B67" s="1">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="3">
+        <v>2.4100000000000001</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="3">
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" ht="12.75">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="3">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="1">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="3">
+        <v>2.6800000000000002</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
-      <c r="B71" s="1">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="3">
+        <v>2.6499999999999999</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="3">
         <v>2.79</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" ht="12.75">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
-      <c r="B73" s="1">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="3">
+        <v>2.8100000000000001</v>
+      </c>
+    </row>
+    <row r="74" ht="12.75">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
-      <c r="B74" s="1">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="3">
+        <v>2.8599999999999999</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="1">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="3">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="76" ht="12.75">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
-      <c r="B76" s="1">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="3">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="77" ht="12.75">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="1">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="3">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="78" ht="12.75">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
-      <c r="B78" s="1">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="3">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="79" ht="12.75">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="3">
         <v>3.04</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" ht="12.75">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="3">
         <v>2.98</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" ht="12.75">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
-      <c r="B81" s="1">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="3">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="1">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="3">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="3">
         <v>2.96</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" ht="12.75">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B84" s="1">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="3">
+        <v>2.9700000000000002</v>
+      </c>
+    </row>
+    <row r="85" ht="12.75">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
-      <c r="B85" s="1">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="3">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="86" ht="12.75">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
-      <c r="B86" s="1">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="3">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="87" ht="12.75">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B87" s="1">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="3">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
-      <c r="B88" s="1">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="3">
+        <v>2.9399999999999999</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B89" s="1">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="3">
+        <v>3.1400000000000001</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="3">
         <v>3.23</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" ht="12.75">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B91" s="1">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="3">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
-      <c r="B92" s="1">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="3">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
-      <c r="B93" s="1">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="3">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B94" s="1">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B94" s="3">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
-      <c r="B95" s="1">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="3">
+        <v>3.5600000000000001</v>
+      </c>
+    </row>
+    <row r="96" ht="12.75">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="1">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="3">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
-      <c r="B97" s="1">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="3">
+        <v>3.5499999999999998</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
-      <c r="B98" s="1">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="3">
+        <v>3.4900000000000002</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="3">
         <v>3.48</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" ht="12.75">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
-      <c r="B100" s="1">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="3">
+        <v>5.6100000000000003</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="1">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="3">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="3">
         <v>3.29</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" ht="12.75">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B103" s="1">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="3">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="104" ht="12.75">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="3">
         <v>3.23</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" ht="12.75">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
-      <c r="B105" s="1">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="3">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="1">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="3">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
-      <c r="B107" s="1">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="3">
+        <v>3.1600000000000001</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B108" s="1">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="3">
+        <v>2.7599999999999998</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
-      <c r="B109" s="1">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="3">
+        <v>2.8599999999999999</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
-      <c r="B110" s="1">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B111" s="1">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="3">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
-      <c r="B112" s="1">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="3">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B113" s="1">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="3">
+        <v>3.5800000000000001</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
-      <c r="B114" s="1">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="3">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="3">
         <v>3.73</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" ht="12.75">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="3">
         <v>3.54</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" ht="12.75">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
-      <c r="B117" s="1">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="3">
+        <v>3.3199999999999998</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B118" s="1">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="3">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="3">
         <v>2.71</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12.75">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B120" s="1">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="3">
+        <v>2.8199999999999998</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
-      <c r="B121" s="1">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B121" s="3">
+        <v>2.7999999999999998</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
-      <c r="B122" s="1">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="3">
+        <v>2.8399999999999999</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B123" s="1">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B123" s="3">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="124" ht="12.75">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
-      <c r="B124" s="1">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B124" s="3">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="1">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="3">
+        <v>3.1299999999999999</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126" s="3">
         <v>3.23</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" ht="12.75">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B127" s="1">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B127" s="3">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
-      <c r="B128" s="1">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="3">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
-      <c r="B129" s="1">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B129" s="3">
+        <v>3.0699999999999998</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B130" s="1">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B130" s="3">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
-      <c r="B131" s="1">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="3">
+        <v>3.1499999999999999</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B132" s="1">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="3">
+        <v>3.3900000000000001</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="3">
         <v>3.48</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" ht="12.75">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
-      <c r="B134" s="1">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B134" s="3">
+        <v>3.7200000000000002</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="1">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B135" s="3">
+        <v>3.7400000000000002</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
-      <c r="B136" s="1">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B136" s="3">
+        <v>3.8100000000000001</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B137" s="1">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B137" s="3">
+        <v>3.8599999999999999</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="3">
         <v>3.79</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="12.75">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B139" s="1">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B139" s="3">
+        <v>3.8900000000000001</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
-      <c r="B140" s="1">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B140" s="3">
+        <v>3.6499999999999999</v>
+      </c>
+    </row>
+    <row r="141" ht="12.75">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
-      <c r="B141" s="1">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B141" s="3">
+        <v>3.6899999999999999</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B142" s="1">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B142" s="3">
+        <v>3.5499999999999998</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
-      <c r="B143" s="1">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B143" s="3">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="3">
         <v>3.77</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" ht="12.75">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="3">
         <v>4.04</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" ht="12.75">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="3">
         <v>4.25</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" ht="12.75">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="3">
         <v>4.29</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" ht="12.75">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
-      <c r="B148" s="1">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B148" s="3">
+        <v>4.2400000000000002</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B149" s="1">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B149" s="3">
+        <v>3.9900000000000002</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
-      <c r="B150" s="1">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B150" s="3">
+        <v>4.0499999999999998</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B151" s="1">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B151" s="3">
+        <v>3.8900000000000001</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
-      <c r="B152" s="1">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B152" s="3">
+        <v>4.0099999999999998</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
-      <c r="B153" s="1">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B153" s="3">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B154" s="1">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B154" s="3">
+        <v>3.6400000000000001</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="3">
         <v>3.48</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" ht="12.75">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B156" s="1">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B156" s="3">
+        <v>3.6099999999999999</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
-      <c r="B157" s="1">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B157" s="3">
+        <v>3.6400000000000001</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158" s="3">
         <v>3.52</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" ht="12.75">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B159" s="1">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B159" s="3">
+        <v>3.5299999999999998</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
-      <c r="B160" s="1">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B160" s="3">
+        <v>3.4500000000000002</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B161" s="1">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B161" s="3">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
-      <c r="B162" s="1">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B162" s="3">
+        <v>3.3500000000000001</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B163" s="1">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B163" s="3">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
-      <c r="B164" s="1">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B164" s="3">
+        <v>3.4700000000000002</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
-      <c r="B165" s="1">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B165" s="3">
+        <v>3.4500000000000002</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B166" s="1">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B166" s="3">
+        <v>3.4900000000000002</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
-      <c r="B167" s="1">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B167" s="3">
+        <v>3.5699999999999998</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B168" s="1">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B168" s="3">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="169" ht="12.75">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
-      <c r="B169" s="1">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B169" s="3">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="170" ht="12.75">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170" s="3">
         <v>3.98</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" ht="12.75">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B171" s="1">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B171" s="3">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
-      <c r="B172" s="1">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B172" s="3">
+        <v>3.4199999999999999</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B173" s="1">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B173" s="3">
+        <v>3.6099999999999999</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174" s="3">
         <v>3.75</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" ht="12.75">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B175" s="1">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B175" s="3">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="176" ht="12.75">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176" s="3">
         <v>3.54</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" ht="12.75">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
-      <c r="B177" s="1">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B177" s="3">
+        <v>3.6299999999999999</v>
+      </c>
+    </row>
+    <row r="178" ht="12.75">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178" s="3">
         <v>3.71</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" ht="12.75">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
-      <c r="B179" s="1">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B179" s="3">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180" s="3">
         <v>3.77</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" ht="12.75">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
-      <c r="B181" s="1">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B181" s="3">
+        <v>3.8399999999999999</v>
+      </c>
+    </row>
+    <row r="182" ht="12.75">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
-      <c r="B182" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B182" s="3">
+        <v>3.7999999999999998</v>
+      </c>
+    </row>
+    <row r="183" ht="12.75">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B183" s="1">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B183" s="3">
+        <v>3.9300000000000002</v>
+      </c>
+    </row>
+    <row r="184" ht="12.75">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
-      <c r="B184" s="1">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B184" s="3">
+        <v>4.0800000000000001</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B185" s="1">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B185" s="3">
+        <v>4.3300000000000001</v>
+      </c>
+    </row>
+    <row r="186" ht="12.75">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
-      <c r="B186" s="1">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B186" s="3">
+        <v>4.4100000000000001</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187" s="3">
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" ht="12.75">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12.75">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
-      <c r="B189" s="1">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B189" s="3">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B190" s="1">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B190" s="3">
+        <v>6.7000000000000002</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
-      <c r="B191" s="1">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B191" s="3">
+        <v>7.3099999999999996</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192" s="3">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" ht="12.75">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" ht="12.75">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
-      <c r="B194" s="1">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B194" s="3">
+        <v>7.9199999999999999</v>
+      </c>
+    </row>
+    <row r="195" ht="12.75">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B195" s="1">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B195" s="3">
+        <v>7.1399999999999997</v>
+      </c>
+    </row>
+    <row r="196" ht="12.75">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
-      <c r="B196" s="1">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B196" s="3">
+        <v>7.6500000000000004</v>
+      </c>
+    </row>
+    <row r="197" ht="12.75">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197" s="3">
         <v>7.79</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" ht="12.75">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198" s="3">
         <v>7.96</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" ht="12.75">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B199" s="1">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="3">
+        <v>8.2300000000000004</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200" s="3">
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3" t="s">
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B201" s="1">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3" t="s">
+      <c r="B201" s="3">
+        <v>8.1600000000000001</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202" s="3">
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3" t="s">
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="A203" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203" s="3">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="A204" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204" s="3">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205" s="3">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="3">
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="A206" s="4">
         <v>44592</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206" s="3">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3" t="s">
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="A207" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B207" s="1">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3">
+      <c r="B207" s="3">
+        <v>8.6600000000000001</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="A208" s="4">
         <v>44651</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208" s="3">
         <v>10.42</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="3" t="s">
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="A209" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209" s="3">
         <v>11.27</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3">
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="A210" s="4">
         <v>44712</v>
       </c>
-      <c r="B210" s="1">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="3" t="s">
+      <c r="B210" s="3">
+        <v>11.130000000000001</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="A211" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211" s="3">
         <v>10.74</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3">
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="A212" s="4">
         <v>44773</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="3">
         <v>10.5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3">
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="A213" s="4">
         <v>44804</v>
       </c>
-      <c r="B213" s="5">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3" t="s">
+      <c r="B213" s="3">
+        <v>8.7699999999999996</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="A214" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="3">
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3">
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="A215" s="4">
         <v>44865</v>
       </c>
-      <c r="B215" s="5">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+      <c r="B215" s="3">
+        <v>8.3900000000000006</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="A216" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B216" s="5">
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3">
+      <c r="B216" s="3">
+        <v>8.5199999999999996</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="A217" s="4">
         <v>44926</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="3">
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="3">
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="A218" s="4">
         <v>44957</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="3">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3" t="s">
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="A219" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B219" s="5">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3">
+      <c r="B219" s="3">
+        <v>9.1799999999999997</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="A220" s="4">
         <v>45016</v>
       </c>
-      <c r="B220" s="5">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3" t="s">
+      <c r="B220" s="3">
+        <v>9.1600000000000001</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="3">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3">
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="A222" s="4">
         <v>45077</v>
       </c>
-      <c r="B222" s="5">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3" t="s">
+      <c r="B222" s="3">
+        <v>7.8899999999999997</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="A223" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B223" s="5">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3">
+      <c r="B223" s="3">
+        <v>7.0700000000000003</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="A224" s="4">
         <v>45138</v>
       </c>
-      <c r="B224" s="5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3">
+      <c r="B224" s="3">
+        <v>6.9000000000000004</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="4">
         <v>45169</v>
       </c>
-      <c r="B225" s="5">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
+      <c r="B225" s="3">
+        <v>7.0499999999999998</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="A226" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B226" s="5">
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3">
+      <c r="B226" s="3">
+        <v>7.4500000000000002</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="4">
         <v>45230</v>
       </c>
-      <c r="B227" s="5">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3" t="s">
+      <c r="B227" s="3">
+        <v>7.3399999999999999</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="A228" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B228" s="5">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3">
+      <c r="B228" s="3">
+        <v>7.2199999999999998</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="A229" s="4">
         <v>45291</v>
       </c>
-      <c r="B229" s="5">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3">
+      <c r="B229" s="3">
+        <v>7.1100000000000003</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="A230" s="4">
         <v>45322</v>
       </c>
-      <c r="B230" s="5">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3" t="s">
+      <c r="B230" s="3">
+        <v>7.1200000000000001</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="A231" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B231" s="5">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3">
+      <c r="B231" s="3">
+        <v>6.9900000000000002</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="A232" s="4">
         <v>45382</v>
       </c>
-      <c r="B232" s="5">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
+      <c r="B232" s="3">
+        <v>6.7999999999999998</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="A233" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B233" s="5">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3">
+      <c r="B233" s="3">
+        <v>6.6699999999999999</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="A234" s="4">
         <v>45443</v>
       </c>
-      <c r="B234" s="5">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3" t="s">
+      <c r="B234" s="3">
+        <v>6.5599999999999996</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="A235" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B235" s="5">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3">
+      <c r="B235" s="3">
+        <v>6.5800000000000001</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="A236" s="4">
         <v>45504</v>
       </c>
-      <c r="B236" s="5">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="3">
+      <c r="B236" s="3">
+        <v>6.6699999999999999</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="A237" s="4">
         <v>45535</v>
       </c>
-      <c r="B237" s="5">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3" t="s">
+      <c r="B237" s="3">
+        <v>6.9500000000000002</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B238" s="5">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="3">
+      <c r="B238" s="3">
+        <v>6.9699999999999998</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="A239" s="4">
         <v>45596</v>
       </c>
-      <c r="B239" s="5">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3" t="s">
+      <c r="B239" s="3">
+        <v>7.5300000000000002</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="A240" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B240" s="5">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3">
+      <c r="B240" s="3">
+        <v>8.9000000000000004</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="A241" s="4">
         <v>45657</v>
       </c>
-      <c r="B241" s="5">
-        <v>9.34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3">
+      <c r="B241" s="3">
+        <v>9.3399999999999999</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="A242" s="4">
         <v>45688</v>
       </c>
-      <c r="B242" s="5">
-        <v>9.64</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="3" t="s">
+      <c r="B242" s="3">
+        <v>9.6400000000000006</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="A243" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="3">
         <v>9.25</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3">
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="A244" s="4">
         <v>45747</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="3">
         <v>8.5</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3" t="s">
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="A245" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
-    </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-    </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="A246" s="4">
+        <v>45808</v>
+      </c>
+      <c r="B246">
+        <v>7.9299999999999997</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="4"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="A248" s="4"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="A249" s="4"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="A250" s="4"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="A251" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA14F4A-AEE9-42B7-B3B1-E5959FA9366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="oleo_itabuna" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>ano</t>
   </si>
@@ -334,24 +351,38 @@
   </si>
   <si>
     <t>31-04-2025</t>
+  </si>
+  <si>
+    <t>31-06-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="64"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -364,28 +395,32 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,291 +438,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -890,23 +642,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B251"/>
   <sheetViews>
-    <sheetView topLeftCell="A219" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B246" activeCellId="0" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -914,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
@@ -922,7 +675,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -930,15 +683,15 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4" s="3">
-        <v>2.1699999999999999</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -946,7 +699,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
@@ -954,23 +707,23 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>2.1600000000000001</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8" s="3">
-        <v>2.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
@@ -978,7 +731,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -986,79 +739,79 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>1.9199999999999999</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>1.8600000000000001</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13" s="3">
-        <v>1.8799999999999999</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14" s="3">
-        <v>1.8899999999999999</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>1.8300000000000001</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16" s="3">
-        <v>1.8999999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>1.8600000000000001</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18" s="3">
-        <v>1.8899999999999999</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>1.8700000000000001</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
@@ -1066,71 +819,71 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>2.0600000000000001</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>1.9199999999999999</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23" s="3">
-        <v>1.9099999999999999</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>2.1099999999999999</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25" s="3">
-        <v>2.3900000000000001</v>
-      </c>
-    </row>
-    <row r="26" ht="12.75">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>2.3900000000000001</v>
-      </c>
-    </row>
-    <row r="27" ht="12.75">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>2.3700000000000001</v>
-      </c>
-    </row>
-    <row r="28" ht="12.75">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28" s="3">
-        <v>2.3799999999999999</v>
-      </c>
-    </row>
-    <row r="29" ht="12.75">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -1138,7 +891,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="30" ht="12.75">
+    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
@@ -1146,7 +899,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="31" ht="12.75">
+    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -1154,15 +907,15 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="32" ht="12.75">
+    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32" s="3">
-        <v>2.3100000000000001</v>
-      </c>
-    </row>
-    <row r="33" ht="12.75">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
@@ -1170,7 +923,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="34" ht="12.75">
+    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1178,7 +931,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="35" ht="12.75">
+    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
@@ -1186,39 +939,39 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="36" ht="12.75">
+    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>2.6099999999999999</v>
-      </c>
-    </row>
-    <row r="37" ht="12.75">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37" s="3">
-        <v>2.8199999999999998</v>
-      </c>
-    </row>
-    <row r="38" ht="12.75">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>3.1699999999999999</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>3.3700000000000001</v>
-      </c>
-    </row>
-    <row r="40" ht="12.75">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
@@ -1226,23 +979,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="41" ht="12.75">
+    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>3.7599999999999998</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>3.8300000000000001</v>
-      </c>
-    </row>
-    <row r="43" ht="12.75">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1250,55 +1003,55 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="44" ht="12.75">
+    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>3.6499999999999999</v>
-      </c>
-    </row>
-    <row r="45" ht="12.75">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45" s="3">
-        <v>3.5299999999999998</v>
-      </c>
-    </row>
-    <row r="46" ht="12.75">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="3">
-        <v>3.2799999999999998</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>3.2000000000000002</v>
-      </c>
-    </row>
-    <row r="48" ht="12.75">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3">
-        <v>2.8700000000000001</v>
-      </c>
-    </row>
-    <row r="49" ht="12.75">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>2.5600000000000001</v>
-      </c>
-    </row>
-    <row r="50" ht="12.75">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
@@ -1306,63 +1059,63 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="51" ht="12.75">
+    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>2.6899999999999999</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>2.6600000000000001</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="3">
-        <v>2.5899999999999999</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>2.5800000000000001</v>
-      </c>
-    </row>
-    <row r="55" ht="12.75">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="3">
-        <v>2.6200000000000001</v>
-      </c>
-    </row>
-    <row r="56" ht="12.75">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56" s="3">
-        <v>2.5800000000000001</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57" s="3">
-        <v>2.5699999999999998</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1370,47 +1123,47 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="59" ht="12.75">
+    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>2.6400000000000001</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>2.6499999999999999</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>2.6400000000000001</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62" s="3">
-        <v>2.6099999999999999</v>
-      </c>
-    </row>
-    <row r="63" ht="12.75">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>2.5600000000000001</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
@@ -1418,31 +1171,31 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="65" ht="12.75">
+    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="3">
-        <v>2.3900000000000001</v>
-      </c>
-    </row>
-    <row r="66" ht="12.75">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66" s="3">
-        <v>2.4199999999999999</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>2.4100000000000001</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
@@ -1450,7 +1203,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="69" ht="12.75">
+    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
@@ -1458,23 +1211,23 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="70" ht="12.75">
+    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>2.6800000000000002</v>
-      </c>
-    </row>
-    <row r="71" ht="12.75">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71" s="3">
-        <v>2.6499999999999999</v>
-      </c>
-    </row>
-    <row r="72" ht="12.75">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
@@ -1482,55 +1235,55 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="73" ht="12.75">
+    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73" s="3">
-        <v>2.8100000000000001</v>
-      </c>
-    </row>
-    <row r="74" ht="12.75">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>2.8599999999999999</v>
-      </c>
-    </row>
-    <row r="75" ht="12.75">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="3">
-        <v>2.9100000000000001</v>
-      </c>
-    </row>
-    <row r="76" ht="12.75">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76" s="3">
-        <v>2.9500000000000002</v>
-      </c>
-    </row>
-    <row r="77" ht="12.75">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>3.0299999999999998</v>
-      </c>
-    </row>
-    <row r="78" ht="12.75">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78" s="3">
-        <v>3.0600000000000001</v>
-      </c>
-    </row>
-    <row r="79" ht="12.75">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1538,7 +1291,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="80" ht="12.75">
+    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
@@ -1546,23 +1299,23 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="81" ht="12.75">
+    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>2.8999999999999999</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="3">
-        <v>2.9500000000000002</v>
-      </c>
-    </row>
-    <row r="83" ht="12.75">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
@@ -1570,55 +1323,55 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="84" ht="12.75">
+    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="3">
-        <v>2.9700000000000002</v>
-      </c>
-    </row>
-    <row r="85" ht="12.75">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85" s="3">
-        <v>2.9500000000000002</v>
-      </c>
-    </row>
-    <row r="86" ht="12.75">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86" s="3">
-        <v>2.9300000000000002</v>
-      </c>
-    </row>
-    <row r="87" ht="12.75">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>2.9100000000000001</v>
-      </c>
-    </row>
-    <row r="88" ht="12.75">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88" s="3">
-        <v>2.9399999999999999</v>
-      </c>
-    </row>
-    <row r="89" ht="12.75">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="3">
-        <v>3.1400000000000001</v>
-      </c>
-    </row>
-    <row r="90" ht="12.75">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
@@ -1626,71 +1379,71 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="91" ht="12.75">
+    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="92" ht="12.75">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92" s="3">
-        <v>3.3599999999999999</v>
-      </c>
-    </row>
-    <row r="93" ht="12.75">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93" s="3">
-        <v>3.4399999999999999</v>
-      </c>
-    </row>
-    <row r="94" ht="12.75">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="3">
-        <v>3.4399999999999999</v>
-      </c>
-    </row>
-    <row r="95" ht="12.75">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95" s="3">
-        <v>3.5600000000000001</v>
-      </c>
-    </row>
-    <row r="96" ht="12.75">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="3">
-        <v>3.5899999999999999</v>
-      </c>
-    </row>
-    <row r="97" ht="12.75">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>3.5499999999999998</v>
-      </c>
-    </row>
-    <row r="98" ht="12.75">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98" s="3">
-        <v>3.4900000000000002</v>
-      </c>
-    </row>
-    <row r="99" ht="12.75">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
@@ -1698,23 +1451,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="100" ht="12.75">
+    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>5.6100000000000003</v>
-      </c>
-    </row>
-    <row r="101" ht="12.75">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="3">
-        <v>3.4100000000000001</v>
-      </c>
-    </row>
-    <row r="102" ht="12.75">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
@@ -1722,15 +1475,15 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="103" ht="12.75">
+    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B103" s="3">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="104" ht="12.75">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
@@ -1738,87 +1491,87 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="105" ht="12.75">
+    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105" s="3">
-        <v>2.9300000000000002</v>
-      </c>
-    </row>
-    <row r="106" ht="12.75">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="3">
-        <v>2.8900000000000001</v>
-      </c>
-    </row>
-    <row r="107" ht="12.75">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107" s="3">
-        <v>3.1600000000000001</v>
-      </c>
-    </row>
-    <row r="108" ht="12.75">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>2.7599999999999998</v>
-      </c>
-    </row>
-    <row r="109" ht="12.75">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109" s="3">
-        <v>2.8599999999999999</v>
-      </c>
-    </row>
-    <row r="110" ht="12.75">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110" s="3">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="111" ht="12.75">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>2.9300000000000002</v>
-      </c>
-    </row>
-    <row r="112" ht="12.75">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112" s="3">
-        <v>3.4399999999999999</v>
-      </c>
-    </row>
-    <row r="113" ht="12.75">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="3">
-        <v>3.5800000000000001</v>
-      </c>
-    </row>
-    <row r="114" ht="12.75">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114" s="3">
-        <v>5.0800000000000001</v>
-      </c>
-    </row>
-    <row r="115" ht="12.75">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1826,7 +1579,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="116" ht="12.75">
+    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
@@ -1834,23 +1587,23 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="117" ht="12.75">
+    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117" s="3">
-        <v>3.3199999999999998</v>
-      </c>
-    </row>
-    <row r="118" ht="12.75">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>2.9100000000000001</v>
-      </c>
-    </row>
-    <row r="119" ht="12.75">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1858,55 +1611,55 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="120" ht="12.75">
+    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="3">
-        <v>2.8199999999999998</v>
-      </c>
-    </row>
-    <row r="121" ht="12.75">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121" s="3">
-        <v>2.7999999999999998</v>
-      </c>
-    </row>
-    <row r="122" ht="12.75">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122" s="3">
-        <v>2.8399999999999999</v>
-      </c>
-    </row>
-    <row r="123" ht="12.75">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="3">
-        <v>2.8900000000000001</v>
-      </c>
-    </row>
-    <row r="124" ht="12.75">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124" s="3">
-        <v>3.1200000000000001</v>
-      </c>
-    </row>
-    <row r="125" ht="12.75">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>3.1299999999999999</v>
-      </c>
-    </row>
-    <row r="126" ht="12.75">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
@@ -1914,55 +1667,55 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="127" ht="12.75">
+    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="3">
-        <v>3.1000000000000001</v>
-      </c>
-    </row>
-    <row r="128" ht="12.75">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128" s="3">
-        <v>3.1000000000000001</v>
-      </c>
-    </row>
-    <row r="129" ht="12.75">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129" s="3">
-        <v>3.0699999999999998</v>
-      </c>
-    </row>
-    <row r="130" ht="12.75">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="3">
-        <v>3.0600000000000001</v>
-      </c>
-    </row>
-    <row r="131" ht="12.75">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131" s="3">
-        <v>3.1499999999999999</v>
-      </c>
-    </row>
-    <row r="132" ht="12.75">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>3.3900000000000001</v>
-      </c>
-    </row>
-    <row r="133" ht="12.75">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
@@ -1970,39 +1723,39 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="134" ht="12.75">
+    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134" s="3">
-        <v>3.7200000000000002</v>
-      </c>
-    </row>
-    <row r="135" ht="12.75">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B135" s="3">
-        <v>3.7400000000000002</v>
-      </c>
-    </row>
-    <row r="136" ht="12.75">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136" s="3">
-        <v>3.8100000000000001</v>
-      </c>
-    </row>
-    <row r="137" ht="12.75">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B137" s="3">
-        <v>3.8599999999999999</v>
-      </c>
-    </row>
-    <row r="138" ht="12.75">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
@@ -2010,47 +1763,47 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="139" ht="12.75">
+    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>3.8900000000000001</v>
-      </c>
-    </row>
-    <row r="140" ht="12.75">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140" s="3">
-        <v>3.6499999999999999</v>
-      </c>
-    </row>
-    <row r="141" ht="12.75">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141" s="3">
-        <v>3.6899999999999999</v>
-      </c>
-    </row>
-    <row r="142" ht="12.75">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B142" s="3">
-        <v>3.5499999999999998</v>
-      </c>
-    </row>
-    <row r="143" ht="12.75">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143" s="3">
-        <v>3.5899999999999999</v>
-      </c>
-    </row>
-    <row r="144" ht="12.75">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -2058,7 +1811,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="145" ht="12.75">
+    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
@@ -2066,7 +1819,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="146" ht="12.75">
+    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
@@ -2074,7 +1827,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="147" ht="12.75">
+    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
@@ -2082,63 +1835,63 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="148" ht="12.75">
+    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148" s="3">
-        <v>4.2400000000000002</v>
-      </c>
-    </row>
-    <row r="149" ht="12.75">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>3.9900000000000002</v>
-      </c>
-    </row>
-    <row r="150" ht="12.75">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>4.0499999999999998</v>
-      </c>
-    </row>
-    <row r="151" ht="12.75">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>3.8900000000000001</v>
-      </c>
-    </row>
-    <row r="152" ht="12.75">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152" s="3">
-        <v>4.0099999999999998</v>
-      </c>
-    </row>
-    <row r="153" ht="12.75">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153" s="3">
-        <v>3.5899999999999999</v>
-      </c>
-    </row>
-    <row r="154" ht="12.75">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B154" s="3">
-        <v>3.6400000000000001</v>
-      </c>
-    </row>
-    <row r="155" ht="12.75">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
@@ -2146,23 +1899,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="156" ht="12.75">
+    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>3.6099999999999999</v>
-      </c>
-    </row>
-    <row r="157" ht="12.75">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157" s="3">
-        <v>3.6400000000000001</v>
-      </c>
-    </row>
-    <row r="158" ht="12.75">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
@@ -2170,95 +1923,95 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="159" ht="12.75">
+    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>3.5299999999999998</v>
-      </c>
-    </row>
-    <row r="160" ht="12.75">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160" s="3">
-        <v>3.4500000000000002</v>
-      </c>
-    </row>
-    <row r="161" ht="12.75">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>3.4100000000000001</v>
-      </c>
-    </row>
-    <row r="162" ht="12.75">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162" s="3">
-        <v>3.3500000000000001</v>
-      </c>
-    </row>
-    <row r="163" ht="12.75">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>3.4100000000000001</v>
-      </c>
-    </row>
-    <row r="164" ht="12.75">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>3.4700000000000002</v>
-      </c>
-    </row>
-    <row r="165" ht="12.75">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165" s="3">
-        <v>3.4500000000000002</v>
-      </c>
-    </row>
-    <row r="166" ht="12.75">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="3">
-        <v>3.4900000000000002</v>
-      </c>
-    </row>
-    <row r="167" ht="12.75">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167" s="3">
-        <v>3.5699999999999998</v>
-      </c>
-    </row>
-    <row r="168" ht="12.75">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B168" s="3">
-        <v>3.5099999999999998</v>
-      </c>
-    </row>
-    <row r="169" ht="12.75">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169" s="3">
-        <v>3.5899999999999999</v>
-      </c>
-    </row>
-    <row r="170" ht="12.75">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
@@ -2266,31 +2019,31 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="171" ht="12.75">
+    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="3">
-        <v>3.5099999999999998</v>
-      </c>
-    </row>
-    <row r="172" ht="12.75">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172" s="3">
-        <v>3.4199999999999999</v>
-      </c>
-    </row>
-    <row r="173" ht="12.75">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B173" s="3">
-        <v>3.6099999999999999</v>
-      </c>
-    </row>
-    <row r="174" ht="12.75">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
@@ -2298,15 +2051,15 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="175" ht="12.75">
+    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B175" s="3">
-        <v>3.4399999999999999</v>
-      </c>
-    </row>
-    <row r="176" ht="12.75">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
@@ -2314,15 +2067,15 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="177" ht="12.75">
+    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177" s="3">
-        <v>3.6299999999999999</v>
-      </c>
-    </row>
-    <row r="178" ht="12.75">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
@@ -2330,15 +2083,15 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="179" ht="12.75">
+    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179" s="3">
-        <v>3.5899999999999999</v>
-      </c>
-    </row>
-    <row r="180" ht="12.75">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
@@ -2346,55 +2099,55 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="181" ht="12.75">
+    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181" s="3">
-        <v>3.8399999999999999</v>
-      </c>
-    </row>
-    <row r="182" ht="12.75">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182" s="3">
-        <v>3.7999999999999998</v>
-      </c>
-    </row>
-    <row r="183" ht="12.75">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B183" s="3">
-        <v>3.9300000000000002</v>
-      </c>
-    </row>
-    <row r="184" ht="12.75">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184" s="3">
-        <v>4.0800000000000001</v>
-      </c>
-    </row>
-    <row r="185" ht="12.75">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B185" s="3">
-        <v>4.3300000000000001</v>
-      </c>
-    </row>
-    <row r="186" ht="12.75">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186" s="3">
-        <v>4.4100000000000001</v>
-      </c>
-    </row>
-    <row r="187" ht="12.75">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
@@ -2402,7 +2155,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="188" ht="12.75">
+    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2410,31 +2163,31 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="189" ht="12.75">
+    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189" s="3">
-        <v>4.9500000000000002</v>
-      </c>
-    </row>
-    <row r="190" ht="12.75">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>6.7000000000000002</v>
-      </c>
-    </row>
-    <row r="191" ht="12.75">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191" s="3">
-        <v>7.3099999999999996</v>
-      </c>
-    </row>
-    <row r="192" ht="12.75">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
@@ -2442,7 +2195,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="193" ht="12.75">
+    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2450,31 +2203,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" ht="12.75">
+    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
       <c r="B194" s="3">
-        <v>7.9199999999999999</v>
-      </c>
-    </row>
-    <row r="195" ht="12.75">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="3">
-        <v>7.1399999999999997</v>
-      </c>
-    </row>
-    <row r="196" ht="12.75">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
       <c r="B196" s="3">
-        <v>7.6500000000000004</v>
-      </c>
-    </row>
-    <row r="197" ht="12.75">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
@@ -2482,7 +2235,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="198" ht="12.75">
+    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
@@ -2490,15 +2243,15 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="199" ht="12.75">
+    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B199" s="3">
-        <v>8.2300000000000004</v>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
@@ -2506,15 +2259,15 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="3">
-        <v>8.1600000000000001</v>
-      </c>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
@@ -2522,7 +2275,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>87</v>
       </c>
@@ -2530,7 +2283,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>88</v>
       </c>
@@ -2538,7 +2291,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
@@ -2546,7 +2299,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
         <v>44592</v>
       </c>
@@ -2554,15 +2307,15 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="3">
-        <v>8.6600000000000001</v>
-      </c>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
         <v>44651</v>
       </c>
@@ -2570,7 +2323,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>90</v>
       </c>
@@ -2578,15 +2331,15 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
         <v>44712</v>
       </c>
       <c r="B210" s="3">
-        <v>11.130000000000001</v>
-      </c>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>91</v>
       </c>
@@ -2594,7 +2347,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
@@ -2602,15 +2355,15 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>8.7699999999999996</v>
-      </c>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>92</v>
       </c>
@@ -2618,23 +2371,23 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>8.3900000000000006</v>
-      </c>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
+        <v>8.39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B216" s="3">
-        <v>8.5199999999999996</v>
-      </c>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
@@ -2642,7 +2395,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
@@ -2650,23 +2403,23 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B219" s="3">
-        <v>9.1799999999999997</v>
-      </c>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
+        <v>9.18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>9.1600000000000001</v>
-      </c>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>95</v>
       </c>
@@ -2674,175 +2427,175 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>7.8899999999999997</v>
-      </c>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="3">
-        <v>7.0700000000000003</v>
-      </c>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>6.9000000000000004</v>
-      </c>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
         <v>45169</v>
       </c>
       <c r="B225" s="3">
-        <v>7.0499999999999998</v>
-      </c>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="3">
-        <v>7.4500000000000002</v>
-      </c>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>7.3399999999999999</v>
-      </c>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="3">
-        <v>7.2199999999999998</v>
-      </c>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>7.1100000000000003</v>
-      </c>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>7.1200000000000001</v>
-      </c>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="3">
-        <v>6.9900000000000002</v>
-      </c>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
       <c r="B232" s="3">
-        <v>6.7999999999999998</v>
-      </c>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="3">
-        <v>6.6699999999999999</v>
-      </c>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
         <v>45443</v>
       </c>
       <c r="B234" s="3">
-        <v>6.5599999999999996</v>
-      </c>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="3">
-        <v>6.5800000000000001</v>
-      </c>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
       <c r="B236" s="3">
-        <v>6.6699999999999999</v>
-      </c>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
       <c r="B237" s="3">
-        <v>6.9500000000000002</v>
-      </c>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B238" s="3">
-        <v>6.9699999999999998</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>7.5300000000000002</v>
-      </c>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="3">
-        <v>8.9000000000000004</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>9.3399999999999999</v>
-      </c>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>9.6400000000000006</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>104</v>
       </c>
@@ -2850,7 +2603,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
@@ -2858,7 +2611,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>105</v>
       </c>
@@ -2866,33 +2619,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>7.9299999999999997</v>
-      </c>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="4"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B247" s="6">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA14F4A-AEE9-42B7-B3B1-E5959FA9366E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822FED8-6DE3-4DC9-915D-8DF1EC6E30BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -654,7 +654,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2636,7 +2636,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="4"/>
+      <c r="A248" s="4">
+        <v>45869</v>
+      </c>
+      <c r="B248" s="6">
+        <v>8.1199999999999992</v>
+      </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822FED8-6DE3-4DC9-915D-8DF1EC6E30BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33800163-C00F-49AE-8B40-DBDF49E7978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -654,7 +657,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2644,7 +2647,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="4"/>
+      <c r="A249" s="4">
+        <v>45900</v>
+      </c>
+      <c r="B249" s="6">
+        <v>8.2899999999999991</v>
+      </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33800163-C00F-49AE-8B40-DBDF49E7978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF3148-5C11-46C9-8C5C-02CB208CFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>ano</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>31-06-2025</t>
+  </si>
+  <si>
+    <t>31-09-2025</t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2658,12 @@
       </c>
     </row>
     <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="4"/>
+      <c r="A250" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B250" s="6">
+        <v>8.64</v>
+      </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF3148-5C11-46C9-8C5C-02CB208CFCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F9BC4-88A7-460A-A5C1-2DFB9E8DA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
   <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2666,7 +2666,12 @@
       </c>
     </row>
     <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="4"/>
+      <c r="A251" s="4">
+        <v>45961</v>
+      </c>
+      <c r="B251" s="6">
+        <v>10.19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521F9BC4-88A7-460A-A5C1-2DFB9E8DA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28670632-64B0-4C66-8A9F-682213B6A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>ano</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>31-09-2025</t>
+  </si>
+  <si>
+    <t>31-11-2025</t>
   </si>
 </sst>
 </file>
@@ -657,10 +660,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2673,6 +2676,14 @@
         <v>10.19</v>
       </c>
     </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B252" s="6">
+        <v>8.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
+++ b/data/datasets_produtos/itabuna/oleo_itabuna.xlsx
@@ -1,36 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\datasets_produtos\itabuna\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28670632-64B0-4C66-8A9F-682213B6A821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="oleo_itabuna" sheetId="1" r:id="rId1"/>
+    <sheet name="oleo_itabuna" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
@@ -368,30 +348,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
-      <color indexed="64"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="64"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -404,32 +373,28 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +412,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,24 +899,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="B253" sqref="B253"/>
+    <sheetView topLeftCell="A219" zoomScale="100" workbookViewId="0">
+      <selection activeCell="B253" activeCellId="0" sqref="B253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
@@ -684,7 +931,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -692,15 +939,15 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4" s="3">
-        <v>2.17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.1699999999999999</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,7 +955,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
@@ -716,23 +963,23 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.1600000000000001</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8" s="3">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
@@ -740,7 +987,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,79 +995,79 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11" s="3">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8600000000000001</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13" s="3">
-        <v>1.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8799999999999999</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14" s="3">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8899999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8300000000000001</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16" s="3">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8999999999999999</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8600000000000001</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18" s="3">
-        <v>1.89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8899999999999999</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1.8700000000000001</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
@@ -828,71 +1075,71 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21" s="3">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2.0600000000000001</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="3">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.9199999999999999</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23" s="3">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1.9099999999999999</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>2.11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.1099999999999999</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25" s="3">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26" s="3">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3700000000000001</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28" s="3">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3799999999999999</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -900,7 +1147,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" ht="12.75">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
@@ -908,7 +1155,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" ht="12.75">
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
@@ -916,15 +1163,15 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" ht="12.75">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32" s="3">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3100000000000001</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
@@ -932,7 +1179,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -940,7 +1187,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" ht="12.75">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
@@ -948,39 +1195,39 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6099999999999999</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37" s="3">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8199999999999998</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38" s="3">
-        <v>3.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1699999999999999</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75">
       <c r="A39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="3">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3700000000000001</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
@@ -988,23 +1235,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" ht="12.75">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="3">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.7599999999999998</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42" s="3">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8300000000000001</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -1012,55 +1259,55 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" ht="12.75">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44" s="3">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6499999999999999</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45" s="3">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5299999999999998</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75">
       <c r="A46" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="3">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.2799999999999998</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47" s="3">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.2000000000000002</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="3">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8700000000000001</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5600000000000001</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
@@ -1068,63 +1315,63 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" ht="12.75">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B51" s="3">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6899999999999999</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52" s="3">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6600000000000001</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75">
       <c r="A53" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B53" s="3">
-        <v>2.59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5899999999999999</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54" s="3">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5800000000000001</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75">
       <c r="A55" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="3">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6200000000000001</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56" s="3">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5800000000000001</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57" s="3">
-        <v>2.57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5699999999999998</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -1132,47 +1379,47 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" ht="12.75">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59" s="3">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75">
       <c r="A60" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B60" s="3">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6499999999999999</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61" s="3">
-        <v>2.64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6400000000000001</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62" s="3">
-        <v>2.61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6099999999999999</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B63" s="3">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.5600000000000001</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
@@ -1180,31 +1427,31 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" ht="12.75">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B65" s="3">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.3900000000000001</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66" s="3">
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.4199999999999999</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75">
       <c r="A67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B67" s="3">
-        <v>2.41</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.4100000000000001</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
@@ -1212,7 +1459,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" ht="12.75">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
@@ -1220,23 +1467,23 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" ht="12.75">
       <c r="A70" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B70" s="3">
-        <v>2.68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6800000000000002</v>
+      </c>
+    </row>
+    <row r="71" ht="12.75">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71" s="3">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.6499999999999999</v>
+      </c>
+    </row>
+    <row r="72" ht="12.75">
       <c r="A72" s="2" t="s">
         <v>31</v>
       </c>
@@ -1244,55 +1491,55 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" ht="12.75">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73" s="3">
-        <v>2.81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8100000000000001</v>
+      </c>
+    </row>
+    <row r="74" ht="12.75">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74" s="3">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8599999999999999</v>
+      </c>
+    </row>
+    <row r="75" ht="12.75">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B75" s="3">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="76" ht="12.75">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76" s="3">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="77" ht="12.75">
       <c r="A77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.0299999999999998</v>
+      </c>
+    </row>
+    <row r="78" ht="12.75">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78" s="3">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="79" ht="12.75">
       <c r="A79" s="2" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1547,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" ht="12.75">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
@@ -1308,23 +1555,23 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" ht="12.75">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81" s="3">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8999999999999999</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75">
       <c r="A82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B82" s="3">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="83" ht="12.75">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
@@ -1332,55 +1579,55 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" ht="12.75">
       <c r="A84" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B84" s="3">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9700000000000002</v>
+      </c>
+    </row>
+    <row r="85" ht="12.75">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85" s="3">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9500000000000002</v>
+      </c>
+    </row>
+    <row r="86" ht="12.75">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86" s="3">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="87" ht="12.75">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B87" s="3">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="88" ht="12.75">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88" s="3">
-        <v>2.94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9399999999999999</v>
+      </c>
+    </row>
+    <row r="89" ht="12.75">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="3">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1400000000000001</v>
+      </c>
+    </row>
+    <row r="90" ht="12.75">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
@@ -1388,71 +1635,71 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" ht="12.75">
       <c r="A91" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B91" s="3">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="92" ht="12.75">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92" s="3">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3599999999999999</v>
+      </c>
+    </row>
+    <row r="93" ht="12.75">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93" s="3">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="94" ht="12.75">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B94" s="3">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="95" ht="12.75">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95" s="3">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5600000000000001</v>
+      </c>
+    </row>
+    <row r="96" ht="12.75">
       <c r="A96" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B96" s="3">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="97" ht="12.75">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97" s="3">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5499999999999998</v>
+      </c>
+    </row>
+    <row r="98" ht="12.75">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98" s="3">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4900000000000002</v>
+      </c>
+    </row>
+    <row r="99" ht="12.75">
       <c r="A99" s="2" t="s">
         <v>42</v>
       </c>
@@ -1460,23 +1707,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" ht="12.75">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100" s="3">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.6100000000000003</v>
+      </c>
+    </row>
+    <row r="101" ht="12.75">
       <c r="A101" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B101" s="3">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="102" ht="12.75">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
@@ -1484,15 +1731,15 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" ht="12.75">
       <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B103" s="3">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="104" ht="12.75">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
@@ -1500,87 +1747,87 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" ht="12.75">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105" s="3">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="106" ht="12.75">
       <c r="A106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="3">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="107" ht="12.75">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107" s="3">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1600000000000001</v>
+      </c>
+    </row>
+    <row r="108" ht="12.75">
       <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B108" s="3">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.7599999999999998</v>
+      </c>
+    </row>
+    <row r="109" ht="12.75">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109" s="3">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8599999999999999</v>
+      </c>
+    </row>
+    <row r="110" ht="12.75">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110" s="3">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="111" ht="12.75">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B111" s="3">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9300000000000002</v>
+      </c>
+    </row>
+    <row r="112" ht="12.75">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112" s="3">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75">
       <c r="A113" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B113" s="3">
-        <v>3.58</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5800000000000001</v>
+      </c>
+    </row>
+    <row r="114" ht="12.75">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114" s="3">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5.0800000000000001</v>
+      </c>
+    </row>
+    <row r="115" ht="12.75">
       <c r="A115" s="2" t="s">
         <v>49</v>
       </c>
@@ -1588,7 +1835,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" ht="12.75">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
@@ -1596,23 +1843,23 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" ht="12.75">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117" s="3">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3199999999999998</v>
+      </c>
+    </row>
+    <row r="118" ht="12.75">
       <c r="A118" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B118" s="3">
-        <v>2.91</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.9100000000000001</v>
+      </c>
+    </row>
+    <row r="119" ht="12.75">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
@@ -1620,55 +1867,55 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" ht="12.75">
       <c r="A120" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B120" s="3">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8199999999999998</v>
+      </c>
+    </row>
+    <row r="121" ht="12.75">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121" s="3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.7999999999999998</v>
+      </c>
+    </row>
+    <row r="122" ht="12.75">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122" s="3">
-        <v>2.84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8399999999999999</v>
+      </c>
+    </row>
+    <row r="123" ht="12.75">
       <c r="A123" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="3">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2.8900000000000001</v>
+      </c>
+    </row>
+    <row r="124" ht="12.75">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124" s="3">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1200000000000001</v>
+      </c>
+    </row>
+    <row r="125" ht="12.75">
       <c r="A125" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1299999999999999</v>
+      </c>
+    </row>
+    <row r="126" ht="12.75">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
@@ -1676,55 +1923,55 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" ht="12.75">
       <c r="A127" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B127" s="3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="128" ht="12.75">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128" s="3">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1000000000000001</v>
+      </c>
+    </row>
+    <row r="129" ht="12.75">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129" s="3">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.0699999999999998</v>
+      </c>
+    </row>
+    <row r="130" ht="12.75">
       <c r="A130" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B130" s="3">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.0600000000000001</v>
+      </c>
+    </row>
+    <row r="131" ht="12.75">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131" s="3">
-        <v>3.15</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.1499999999999999</v>
+      </c>
+    </row>
+    <row r="132" ht="12.75">
       <c r="A132" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B132" s="3">
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3900000000000001</v>
+      </c>
+    </row>
+    <row r="133" ht="12.75">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
@@ -1732,39 +1979,39 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" ht="12.75">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134" s="3">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.7200000000000002</v>
+      </c>
+    </row>
+    <row r="135" ht="12.75">
       <c r="A135" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B135" s="3">
-        <v>3.74</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.7400000000000002</v>
+      </c>
+    </row>
+    <row r="136" ht="12.75">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136" s="3">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8100000000000001</v>
+      </c>
+    </row>
+    <row r="137" ht="12.75">
       <c r="A137" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B137" s="3">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8599999999999999</v>
+      </c>
+    </row>
+    <row r="138" ht="12.75">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
@@ -1772,47 +2019,47 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="12.75">
       <c r="A139" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B139" s="3">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8900000000000001</v>
+      </c>
+    </row>
+    <row r="140" ht="12.75">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140" s="3">
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6499999999999999</v>
+      </c>
+    </row>
+    <row r="141" ht="12.75">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141" s="3">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6899999999999999</v>
+      </c>
+    </row>
+    <row r="142" ht="12.75">
       <c r="A142" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B142" s="3">
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5499999999999998</v>
+      </c>
+    </row>
+    <row r="143" ht="12.75">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143" s="3">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="144" ht="12.75">
       <c r="A144" s="2" t="s">
         <v>61</v>
       </c>
@@ -1820,7 +2067,7 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" ht="12.75">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
@@ -1828,7 +2075,7 @@
         <v>4.04</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" ht="12.75">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
@@ -1836,7 +2083,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" ht="12.75">
       <c r="A147" s="2" t="s">
         <v>62</v>
       </c>
@@ -1844,63 +2091,63 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" ht="12.75">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148" s="3">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.2400000000000002</v>
+      </c>
+    </row>
+    <row r="149" ht="12.75">
       <c r="A149" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B149" s="3">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.9900000000000002</v>
+      </c>
+    </row>
+    <row r="150" ht="12.75">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150" s="3">
-        <v>4.05</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.0499999999999998</v>
+      </c>
+    </row>
+    <row r="151" ht="12.75">
       <c r="A151" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B151" s="3">
-        <v>3.89</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8900000000000001</v>
+      </c>
+    </row>
+    <row r="152" ht="12.75">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152" s="3">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.0099999999999998</v>
+      </c>
+    </row>
+    <row r="153" ht="12.75">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153" s="3">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="154" ht="12.75">
       <c r="A154" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B154" s="3">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6400000000000001</v>
+      </c>
+    </row>
+    <row r="155" ht="12.75">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
@@ -1908,23 +2155,23 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" ht="12.75">
       <c r="A156" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B156" s="3">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6099999999999999</v>
+      </c>
+    </row>
+    <row r="157" ht="12.75">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157" s="3">
-        <v>3.64</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6400000000000001</v>
+      </c>
+    </row>
+    <row r="158" ht="12.75">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
@@ -1932,95 +2179,95 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" ht="12.75">
       <c r="A159" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B159" s="3">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5299999999999998</v>
+      </c>
+    </row>
+    <row r="160" ht="12.75">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160" s="3">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4500000000000002</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75">
       <c r="A161" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B161" s="3">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162" s="3">
-        <v>3.35</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.3500000000000001</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75">
       <c r="A163" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B163" s="3">
-        <v>3.41</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4100000000000001</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164" s="3">
-        <v>3.47</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4700000000000002</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165" s="3">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4500000000000002</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75">
       <c r="A166" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B166" s="3">
-        <v>3.49</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4900000000000002</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167" s="3">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5699999999999998</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75">
       <c r="A168" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B168" s="3">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="169" ht="12.75">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169" s="3">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="170" ht="12.75">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
@@ -2028,31 +2275,31 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" ht="12.75">
       <c r="A171" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B171" s="3">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5099999999999998</v>
+      </c>
+    </row>
+    <row r="172" ht="12.75">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172" s="3">
-        <v>3.42</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4199999999999999</v>
+      </c>
+    </row>
+    <row r="173" ht="12.75">
       <c r="A173" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B173" s="3">
-        <v>3.61</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6099999999999999</v>
+      </c>
+    </row>
+    <row r="174" ht="12.75">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
@@ -2060,15 +2307,15 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" ht="12.75">
       <c r="A175" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B175" s="3">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.4399999999999999</v>
+      </c>
+    </row>
+    <row r="176" ht="12.75">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
@@ -2076,15 +2323,15 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" ht="12.75">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177" s="3">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.6299999999999999</v>
+      </c>
+    </row>
+    <row r="178" ht="12.75">
       <c r="A178" s="2" t="s">
         <v>75</v>
       </c>
@@ -2092,15 +2339,15 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" ht="12.75">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179" s="3">
-        <v>3.59</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.5899999999999999</v>
+      </c>
+    </row>
+    <row r="180" ht="12.75">
       <c r="A180" s="2" t="s">
         <v>76</v>
       </c>
@@ -2108,55 +2355,55 @@
         <v>3.77</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" ht="12.75">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181" s="3">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.8399999999999999</v>
+      </c>
+    </row>
+    <row r="182" ht="12.75">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182" s="3">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.7999999999999998</v>
+      </c>
+    </row>
+    <row r="183" ht="12.75">
       <c r="A183" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B183" s="3">
-        <v>3.93</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3.9300000000000002</v>
+      </c>
+    </row>
+    <row r="184" ht="12.75">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184" s="3">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.0800000000000001</v>
+      </c>
+    </row>
+    <row r="185" ht="12.75">
       <c r="A185" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B185" s="3">
-        <v>4.33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.3300000000000001</v>
+      </c>
+    </row>
+    <row r="186" ht="12.75">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186" s="3">
-        <v>4.41</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.4100000000000001</v>
+      </c>
+    </row>
+    <row r="187" ht="12.75">
       <c r="A187" s="2" t="s">
         <v>79</v>
       </c>
@@ -2164,7 +2411,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" ht="12.75">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
@@ -2172,31 +2419,31 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" ht="12.75">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189" s="3">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4.9500000000000002</v>
+      </c>
+    </row>
+    <row r="190" ht="12.75">
       <c r="A190" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B190" s="3">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>6.7000000000000002</v>
+      </c>
+    </row>
+    <row r="191" ht="12.75">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191" s="3">
-        <v>7.31</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.3099999999999996</v>
+      </c>
+    </row>
+    <row r="192" ht="12.75">
       <c r="A192" s="2" t="s">
         <v>81</v>
       </c>
@@ -2204,7 +2451,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" ht="12.75">
       <c r="A193" s="2">
         <v>44196</v>
       </c>
@@ -2212,31 +2459,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" ht="12.75">
       <c r="A194" s="2">
         <v>44227</v>
       </c>
       <c r="B194" s="3">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.9199999999999999</v>
+      </c>
+    </row>
+    <row r="195" ht="12.75">
       <c r="A195" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B195" s="3">
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.1399999999999997</v>
+      </c>
+    </row>
+    <row r="196" ht="12.75">
       <c r="A196" s="2">
         <v>44286</v>
       </c>
       <c r="B196" s="3">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+        <v>7.6500000000000004</v>
+      </c>
+    </row>
+    <row r="197" ht="12.75">
       <c r="A197" s="2" t="s">
         <v>83</v>
       </c>
@@ -2244,7 +2491,7 @@
         <v>7.79</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" ht="12.75">
       <c r="A198" s="2">
         <v>44347</v>
       </c>
@@ -2252,15 +2499,15 @@
         <v>7.96</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" ht="12.75">
       <c r="A199" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B199" s="3">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.2300000000000004</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2">
         <v>44408</v>
       </c>
@@ -2268,15 +2515,15 @@
         <v>8.0500000000000007</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B201" s="3">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.1600000000000001</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="4" t="s">
         <v>86</v>
       </c>
@@ -2284,7 +2531,7 @@
         <v>8.2100000000000009</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="4" t="s">
         <v>87</v>
       </c>
@@ -2292,7 +2539,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="4" t="s">
         <v>88</v>
       </c>
@@ -2300,7 +2547,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2">
         <v>44561</v>
       </c>
@@ -2308,7 +2555,7 @@
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="4">
         <v>44592</v>
       </c>
@@ -2316,15 +2563,15 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B207" s="3">
-        <v>8.66</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.6600000000000001</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="4">
         <v>44651</v>
       </c>
@@ -2332,7 +2579,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="4" t="s">
         <v>90</v>
       </c>
@@ -2340,15 +2587,15 @@
         <v>11.27</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="4">
         <v>44712</v>
       </c>
       <c r="B210" s="3">
-        <v>11.13</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11.130000000000001</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="4" t="s">
         <v>91</v>
       </c>
@@ -2356,7 +2603,7 @@
         <v>10.74</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="4">
         <v>44773</v>
       </c>
@@ -2364,15 +2611,15 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="4">
         <v>44804</v>
       </c>
       <c r="B213" s="3">
-        <v>8.77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.7699999999999996</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="4" t="s">
         <v>92</v>
       </c>
@@ -2380,23 +2627,23 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="4">
         <v>44865</v>
       </c>
       <c r="B215" s="3">
-        <v>8.39</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.3900000000000006</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B216" s="3">
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.5199999999999996</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="4">
         <v>44926</v>
       </c>
@@ -2404,7 +2651,7 @@
         <v>9.1300000000000008</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="4">
         <v>44957</v>
       </c>
@@ -2412,23 +2659,23 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B219" s="3">
-        <v>9.18</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.1799999999999997</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="4">
         <v>45016</v>
       </c>
       <c r="B220" s="3">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.1600000000000001</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="4" t="s">
         <v>95</v>
       </c>
@@ -2436,175 +2683,175 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="4">
         <v>45077</v>
       </c>
       <c r="B222" s="3">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.8899999999999997</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B223" s="3">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.0700000000000003</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="4">
         <v>45138</v>
       </c>
       <c r="B224" s="3">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.9000000000000004</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="4">
         <v>45169</v>
       </c>
       <c r="B225" s="3">
-        <v>7.05</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.0499999999999998</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B226" s="3">
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.4500000000000002</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="4">
         <v>45230</v>
       </c>
       <c r="B227" s="3">
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.3399999999999999</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B228" s="3">
-        <v>7.22</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.2199999999999998</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="4">
         <v>45291</v>
       </c>
       <c r="B229" s="3">
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.1100000000000003</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="4">
         <v>45322</v>
       </c>
       <c r="B230" s="3">
-        <v>7.12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.1200000000000001</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B231" s="3">
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.9900000000000002</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="4">
         <v>45382</v>
       </c>
       <c r="B232" s="3">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.7999999999999998</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B233" s="3">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.6699999999999999</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="4">
         <v>45443</v>
       </c>
       <c r="B234" s="3">
-        <v>6.56</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.5599999999999996</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B235" s="3">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.5800000000000001</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="4">
         <v>45504</v>
       </c>
       <c r="B236" s="3">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.6699999999999999</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="4">
         <v>45535</v>
       </c>
       <c r="B237" s="3">
-        <v>6.95</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.9500000000000002</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B238" s="3">
-        <v>6.97</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6.9699999999999998</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="4">
         <v>45596</v>
       </c>
       <c r="B239" s="3">
-        <v>7.53</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7.5300000000000002</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="3">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8.9000000000000004</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="4">
         <v>45657</v>
       </c>
       <c r="B241" s="3">
-        <v>9.34</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.3399999999999999</v>
+      </c>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="4">
         <v>45688</v>
       </c>
       <c r="B242" s="3">
-        <v>9.64</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.6400000000000006</v>
+      </c>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="4" t="s">
         <v>104</v>
       </c>
@@ -2612,7 +2859,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="4">
         <v>45747</v>
       </c>
@@ -2620,7 +2867,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="4" t="s">
         <v>105</v>
       </c>
@@ -2628,64 +2875,74 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="4">
         <v>45808</v>
       </c>
       <c r="B246">
-        <v>7.93</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="5" t="s">
+        <v>7.9299999999999997</v>
+      </c>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="A247" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B247" s="6">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="3">
+        <v>8.0199999999999996</v>
+      </c>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="4">
         <v>45869</v>
       </c>
-      <c r="B248" s="6">
+      <c r="B248" s="3">
         <v>8.1199999999999992</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="4">
         <v>45900</v>
       </c>
-      <c r="B249" s="6">
+      <c r="B249" s="3">
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B250" s="6">
-        <v>8.64</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="3">
+        <v>8.6400000000000006</v>
+      </c>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="4">
         <v>45961</v>
       </c>
-      <c r="B251" s="6">
+      <c r="B251" s="3">
         <v>10.19</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B252" s="6">
-        <v>8.86</v>
+      <c r="B252" s="3">
+        <v>8.8599999999999994</v>
+      </c>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="A253" s="4">
+        <v>46022</v>
+      </c>
+      <c r="B253">
+        <v>10.380000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>